--- a/Reporting/Silver_tables/oc_rates_USG_MONTHLY_2024-09-03.xlsx
+++ b/Reporting/Silver_tables/oc_rates_USG_MONTHLY_2024-09-03.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU37"/>
+  <dimension ref="A1:AV37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -620,50 +620,55 @@
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
+          <t>CP_total_money</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
           <t>Trade_level_negative_exposure_percentage</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Trade_level_positive_exposure_percentage</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Clean_trade_level_negative_exposure_percentage</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Clean_trade_level_positive_exposure_percentage</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Clean_net_margin_MV</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>Net_margin_MV</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>Margin_RCV_allocation</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>Collateral_value_allocated</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>Clean_margin_RCV_allocation</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>Margin_RCV_allocation</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>Collateral_value_allocated</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>Clean_collateral_value_allocated</t>
         </is>
@@ -800,34 +805,37 @@
         <v>133512.6364898144</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>24608000</v>
       </c>
       <c r="AM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="n">
         <v>0.2907586051785446</v>
       </c>
-      <c r="AN2" t="n">
-        <v>0</v>
-      </c>
       <c r="AO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="n">
         <v>0.307087037436549</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>41000</v>
       </c>
       <c r="AQ2" t="n">
         <v>41000</v>
       </c>
       <c r="AR2" t="n">
-        <v>12590.56853489851</v>
+        <v>41000</v>
       </c>
       <c r="AS2" t="n">
-        <v>11921.10281232033</v>
+        <v>0</v>
       </c>
       <c r="AT2" t="n">
-        <v>11921.10281232033</v>
+        <v>0</v>
       </c>
       <c r="AU2" t="n">
-        <v>12590.56853489851</v>
+        <v>0</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -897,7 +905,7 @@
         </is>
       </c>
       <c r="R3" t="n">
-        <v>5611904.2222</v>
+        <v>5611904.2223</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -963,34 +971,37 @@
         <v>133512.6364898144</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>24608000</v>
       </c>
       <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
         <v>0.03479192839738701</v>
       </c>
-      <c r="AN3" t="n">
-        <v>0</v>
-      </c>
       <c r="AO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP3" t="n">
         <v>0.02301521401261471</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>41000</v>
       </c>
       <c r="AQ3" t="n">
         <v>41000</v>
       </c>
       <c r="AR3" t="n">
-        <v>943.6237745172029</v>
+        <v>41000</v>
       </c>
       <c r="AS3" t="n">
-        <v>1426.469064292867</v>
+        <v>9310.305591677503</v>
       </c>
       <c r="AT3" t="n">
-        <v>5784031.363385522</v>
+        <v>5791915.199912907</v>
       </c>
       <c r="AU3" t="n">
-        <v>5781658.617717222</v>
+        <v>9310.305591677503</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>5790025.299534382</v>
       </c>
     </row>
     <row r="4">
@@ -1060,7 +1071,7 @@
         </is>
       </c>
       <c r="R4" t="n">
-        <v>3279971.2222</v>
+        <v>3279971.2223</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -1126,34 +1137,37 @@
         <v>133512.6364898144</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>24608000</v>
       </c>
       <c r="AM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN4" t="n">
         <v>0.1263163498629691</v>
       </c>
-      <c r="AN4" t="n">
-        <v>0</v>
-      </c>
       <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="n">
         <v>0.1294953373649654</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>41000</v>
       </c>
       <c r="AQ4" t="n">
         <v>41000</v>
       </c>
       <c r="AR4" t="n">
-        <v>5309.308831963583</v>
+        <v>41000</v>
       </c>
       <c r="AS4" t="n">
-        <v>5178.970344381733</v>
+        <v>5441.563719115735</v>
       </c>
       <c r="AT4" t="n">
-        <v>3400325.771164166</v>
+        <v>3400588.3645389</v>
       </c>
       <c r="AU4" t="n">
-        <v>3399917.284220579</v>
+        <v>5441.563719115735</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>3400049.539107731</v>
       </c>
     </row>
     <row r="5">
@@ -1289,34 +1303,37 @@
         <v>133512.6364898144</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>24608000</v>
       </c>
       <c r="AM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN5" t="n">
         <v>0.01604907206655008</v>
       </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
       <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="n">
         <v>0.002739126866489958</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>41000</v>
       </c>
       <c r="AQ5" t="n">
         <v>41000</v>
       </c>
       <c r="AR5" t="n">
-        <v>112.3042015260883</v>
+        <v>41000</v>
       </c>
       <c r="AS5" t="n">
-        <v>658.0119547285534</v>
+        <v>9668.52243172952</v>
       </c>
       <c r="AT5" t="n">
-        <v>6002831.111152271</v>
+        <v>6011841.621629272</v>
       </c>
       <c r="AU5" t="n">
-        <v>6000329.342855206</v>
+        <v>9668.52243172952</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>6009885.561085409</v>
       </c>
     </row>
     <row r="6">
@@ -1452,34 +1469,37 @@
         <v>133512.6364898144</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>24608000</v>
       </c>
       <c r="AM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN6" t="n">
         <v>0.1076749908217847</v>
       </c>
-      <c r="AN6" t="n">
-        <v>0</v>
-      </c>
       <c r="AO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP6" t="n">
         <v>0.1089822052301493</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>41000</v>
       </c>
       <c r="AQ6" t="n">
         <v>41000</v>
       </c>
       <c r="AR6" t="n">
-        <v>4468.27041443612</v>
+        <v>41000</v>
       </c>
       <c r="AS6" t="n">
-        <v>4414.674623693172</v>
+        <v>4176.974967490247</v>
       </c>
       <c r="AT6" t="n">
-        <v>2612105.975806716</v>
+        <v>2611868.276150513</v>
       </c>
       <c r="AU6" t="n">
-        <v>2611507.203857364</v>
+        <v>4176.974967490247</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>2611215.908410418</v>
       </c>
     </row>
     <row r="7">
@@ -1615,34 +1635,37 @@
         <v>133512.6364898144</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>24608000</v>
       </c>
       <c r="AM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN7" t="n">
         <v>0.06620650764341016</v>
       </c>
-      <c r="AN7" t="n">
-        <v>0</v>
-      </c>
       <c r="AO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP7" t="n">
         <v>0.06629160085705316</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>41000</v>
       </c>
       <c r="AQ7" t="n">
         <v>41000</v>
       </c>
       <c r="AR7" t="n">
-        <v>2717.955635139179</v>
+        <v>41000</v>
       </c>
       <c r="AS7" t="n">
-        <v>2714.466813379816</v>
+        <v>693.1079323797139</v>
       </c>
       <c r="AT7" t="n">
-        <v>535999.85236333</v>
+        <v>533978.4934823299</v>
       </c>
       <c r="AU7" t="n">
-        <v>535397.0379001392</v>
+        <v>693.1079323797139</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>533372.1901973798</v>
       </c>
     </row>
     <row r="8">
@@ -1778,34 +1801,37 @@
         <v>133512.6364898144</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>24608000</v>
       </c>
       <c r="AM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN8" t="n">
         <v>0.06620650764341016</v>
       </c>
-      <c r="AN8" t="n">
-        <v>0</v>
-      </c>
       <c r="AO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP8" t="n">
         <v>0.06629160085705316</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>41000</v>
       </c>
       <c r="AQ8" t="n">
         <v>41000</v>
       </c>
       <c r="AR8" t="n">
-        <v>2717.955635139179</v>
+        <v>41000</v>
       </c>
       <c r="AS8" t="n">
-        <v>2714.466813379816</v>
+        <v>693.1079323797139</v>
       </c>
       <c r="AT8" t="n">
-        <v>535999.85236333</v>
+        <v>533978.4934823299</v>
       </c>
       <c r="AU8" t="n">
-        <v>535397.0379001392</v>
+        <v>693.1079323797139</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>533372.1901973798</v>
       </c>
     </row>
     <row r="9">
@@ -1941,34 +1967,37 @@
         <v>133512.6364898144</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>24608000</v>
       </c>
       <c r="AM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" t="n">
         <v>0.06620650764341016</v>
       </c>
-      <c r="AN9" t="n">
-        <v>0</v>
-      </c>
       <c r="AO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP9" t="n">
         <v>0.06629160085705316</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>41000</v>
       </c>
       <c r="AQ9" t="n">
         <v>41000</v>
       </c>
       <c r="AR9" t="n">
-        <v>2717.955635139179</v>
+        <v>41000</v>
       </c>
       <c r="AS9" t="n">
-        <v>2714.466813379816</v>
+        <v>693.1079323797139</v>
       </c>
       <c r="AT9" t="n">
-        <v>535999.85236333</v>
+        <v>533978.4934823299</v>
       </c>
       <c r="AU9" t="n">
-        <v>535397.0379001392</v>
+        <v>693.1079323797139</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>533372.1901973798</v>
       </c>
     </row>
     <row r="10">
@@ -2104,34 +2133,37 @@
         <v>133512.6364898144</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>24608000</v>
       </c>
       <c r="AM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN10" t="n">
         <v>0.06620650764341016</v>
       </c>
-      <c r="AN10" t="n">
-        <v>0</v>
-      </c>
       <c r="AO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP10" t="n">
         <v>0.06629160085705316</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>41000</v>
       </c>
       <c r="AQ10" t="n">
         <v>41000</v>
       </c>
       <c r="AR10" t="n">
-        <v>2717.955635139179</v>
+        <v>41000</v>
       </c>
       <c r="AS10" t="n">
-        <v>2714.466813379816</v>
+        <v>693.1079323797139</v>
       </c>
       <c r="AT10" t="n">
-        <v>535999.85236333</v>
+        <v>533978.4934823299</v>
       </c>
       <c r="AU10" t="n">
-        <v>535397.0379001392</v>
+        <v>693.1079323797139</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>533372.1901973798</v>
       </c>
     </row>
     <row r="11">
@@ -2267,34 +2299,37 @@
         <v>133512.6364898144</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>24608000</v>
       </c>
       <c r="AM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN11" t="n">
         <v>0.06620650764341016</v>
       </c>
-      <c r="AN11" t="n">
-        <v>0</v>
-      </c>
       <c r="AO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP11" t="n">
         <v>0.06629160085705316</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>41000</v>
       </c>
       <c r="AQ11" t="n">
         <v>41000</v>
       </c>
       <c r="AR11" t="n">
-        <v>2717.955635139179</v>
+        <v>41000</v>
       </c>
       <c r="AS11" t="n">
-        <v>2714.466813379816</v>
+        <v>693.1079323797139</v>
       </c>
       <c r="AT11" t="n">
-        <v>535999.85236333</v>
+        <v>533978.4934823299</v>
       </c>
       <c r="AU11" t="n">
-        <v>535397.0379001392</v>
+        <v>693.1079323797139</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>533372.1901973798</v>
       </c>
     </row>
     <row r="12">
@@ -2430,34 +2465,37 @@
         <v>133512.6364898144</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>24608000</v>
       </c>
       <c r="AM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN12" t="n">
         <v>0.02546402743742551</v>
       </c>
-      <c r="AN12" t="n">
-        <v>0</v>
-      </c>
       <c r="AO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP12" t="n">
         <v>0.02549675482910244</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>41000</v>
       </c>
       <c r="AQ12" t="n">
         <v>41000</v>
       </c>
       <c r="AR12" t="n">
-        <v>1045.3669479932</v>
+        <v>41000</v>
       </c>
       <c r="AS12" t="n">
-        <v>1044.025124934446</v>
+        <v>266.5799739921977</v>
       </c>
       <c r="AT12" t="n">
-        <v>206153.786336675</v>
+        <v>205376.3411857327</v>
       </c>
       <c r="AU12" t="n">
-        <v>205921.9345913975</v>
+        <v>266.5799739921977</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>205143.1476173965</v>
       </c>
     </row>
     <row r="13">
@@ -2527,7 +2565,7 @@
         </is>
       </c>
       <c r="R13" t="n">
-        <v>5227827.5143</v>
+        <v>5227827.514300001</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -2593,34 +2631,37 @@
         <v>133512.6364898144</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>24608000</v>
       </c>
       <c r="AM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN13" t="n">
         <v>0.06791248801828828</v>
       </c>
-      <c r="AN13" t="n">
-        <v>0</v>
-      </c>
       <c r="AO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP13" t="n">
         <v>0.07172631997486345</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>41000</v>
       </c>
       <c r="AQ13" t="n">
         <v>41000</v>
       </c>
       <c r="AR13" t="n">
-        <v>2940.779118969402</v>
+        <v>41000</v>
       </c>
       <c r="AS13" t="n">
-        <v>2784.41200874982</v>
+        <v>8670.513654096228</v>
       </c>
       <c r="AT13" t="n">
-        <v>6539965.712658751</v>
+        <v>6545851.814304097</v>
       </c>
       <c r="AU13" t="n">
-        <v>6540122.07976897</v>
+        <v>8670.513654096228</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>6545851.814304097</v>
       </c>
     </row>
     <row r="14">
@@ -2757,22 +2798,22 @@
         <v>0</v>
       </c>
       <c r="AM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN14" t="n">
         <v>0.1658040313976001</v>
       </c>
-      <c r="AN14" t="n">
-        <v>0</v>
-      </c>
       <c r="AO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP14" t="n">
         <v>0.1658040313976001</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>209931.09</v>
       </c>
       <c r="AQ14" t="n">
         <v>209931.09</v>
       </c>
       <c r="AR14" t="n">
-        <v>0</v>
+        <v>209931.09</v>
       </c>
       <c r="AS14" t="n">
         <v>0</v>
@@ -2781,6 +2822,9 @@
         <v>0</v>
       </c>
       <c r="AU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2915,34 +2959,37 @@
         <v>274851.58</v>
       </c>
       <c r="AL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM15" t="n">
         <v>0.2682556770597387</v>
       </c>
-      <c r="AM15" t="n">
-        <v>0</v>
-      </c>
       <c r="AN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO15" t="n">
         <v>0.2682556770597387</v>
       </c>
-      <c r="AO15" t="n">
-        <v>0</v>
-      </c>
       <c r="AP15" t="n">
-        <v>209931.09</v>
+        <v>0</v>
       </c>
       <c r="AQ15" t="n">
         <v>209931.09</v>
       </c>
       <c r="AR15" t="n">
-        <v>56315.20668383894</v>
+        <v>209931.09</v>
       </c>
       <c r="AS15" t="n">
-        <v>56315.20668383894</v>
+        <v>0</v>
       </c>
       <c r="AT15" t="n">
-        <v>56315.20668383894</v>
+        <v>0</v>
       </c>
       <c r="AU15" t="n">
-        <v>56315.20668383894</v>
+        <v>0</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -3079,22 +3126,22 @@
         <v>0</v>
       </c>
       <c r="AM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN16" t="n">
         <v>0.8341959686024</v>
       </c>
-      <c r="AN16" t="n">
-        <v>0</v>
-      </c>
       <c r="AO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP16" t="n">
         <v>0.8341959686024</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>209931.09</v>
       </c>
       <c r="AQ16" t="n">
         <v>209931.09</v>
       </c>
       <c r="AR16" t="n">
-        <v>0</v>
+        <v>209931.09</v>
       </c>
       <c r="AS16" t="n">
         <v>0</v>
@@ -3103,6 +3150,9 @@
         <v>0</v>
       </c>
       <c r="AU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3237,34 +3287,37 @@
         <v>274851.58</v>
       </c>
       <c r="AL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM17" t="n">
         <v>0.2464104938209801</v>
       </c>
-      <c r="AM17" t="n">
-        <v>0</v>
-      </c>
       <c r="AN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO17" t="n">
         <v>0.2464104938209801</v>
       </c>
-      <c r="AO17" t="n">
-        <v>0</v>
-      </c>
       <c r="AP17" t="n">
-        <v>209931.09</v>
+        <v>0</v>
       </c>
       <c r="AQ17" t="n">
         <v>209931.09</v>
       </c>
       <c r="AR17" t="n">
-        <v>51729.2235552766</v>
+        <v>209931.09</v>
       </c>
       <c r="AS17" t="n">
-        <v>51729.2235552766</v>
+        <v>0</v>
       </c>
       <c r="AT17" t="n">
-        <v>51729.2235552766</v>
+        <v>0</v>
       </c>
       <c r="AU17" t="n">
-        <v>51729.2235552766</v>
+        <v>0</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -3398,34 +3451,37 @@
         <v>274851.58</v>
       </c>
       <c r="AL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM18" t="n">
         <v>0.4853338291192811</v>
       </c>
-      <c r="AM18" t="n">
-        <v>0</v>
-      </c>
       <c r="AN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO18" t="n">
         <v>0.4853338291192811</v>
       </c>
-      <c r="AO18" t="n">
-        <v>0</v>
-      </c>
       <c r="AP18" t="n">
-        <v>209931.09</v>
+        <v>0</v>
       </c>
       <c r="AQ18" t="n">
         <v>209931.09</v>
       </c>
       <c r="AR18" t="n">
-        <v>101886.6597608844</v>
+        <v>209931.09</v>
       </c>
       <c r="AS18" t="n">
-        <v>101886.6597608844</v>
+        <v>0</v>
       </c>
       <c r="AT18" t="n">
-        <v>101886.6597608844</v>
+        <v>0</v>
       </c>
       <c r="AU18" t="n">
-        <v>101886.6597608844</v>
+        <v>0</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -3495,7 +3551,7 @@
         </is>
       </c>
       <c r="R19" t="n">
-        <v>7406605.9722</v>
+        <v>7406605.9723</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -3561,19 +3617,19 @@
         <v>25039.64304048812</v>
       </c>
       <c r="AL19" t="n">
-        <v>0</v>
+        <v>7928000</v>
       </c>
       <c r="AM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN19" t="n">
         <v>0.9183668025811872</v>
       </c>
-      <c r="AN19" t="n">
-        <v>0</v>
-      </c>
       <c r="AO19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP19" t="n">
         <v>0.917499167046023</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>0</v>
       </c>
       <c r="AQ19" t="n">
         <v>0</v>
@@ -3588,6 +3644,9 @@
         <v>7811713.206267</v>
       </c>
       <c r="AU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV19" t="n">
         <v>7809916.5909</v>
       </c>
     </row>
@@ -3658,7 +3717,7 @@
         </is>
       </c>
       <c r="R20" t="n">
-        <v>555369.9121999999</v>
+        <v>555369.9123</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -3724,19 +3783,19 @@
         <v>25039.64304048812</v>
       </c>
       <c r="AL20" t="n">
-        <v>0</v>
+        <v>7928000</v>
       </c>
       <c r="AM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN20" t="n">
         <v>0.08163319741881282</v>
       </c>
-      <c r="AN20" t="n">
-        <v>0</v>
-      </c>
       <c r="AO20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP20" t="n">
         <v>0.08250083295397699</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>0</v>
       </c>
       <c r="AQ20" t="n">
         <v>0</v>
@@ -3751,6 +3810,9 @@
         <v>586107.3736669687</v>
       </c>
       <c r="AU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV20" t="n">
         <v>585972.5748736134</v>
       </c>
     </row>
@@ -3887,19 +3949,19 @@
         <v>35021.81691234186</v>
       </c>
       <c r="AL21" t="n">
-        <v>0</v>
+        <v>16105000</v>
       </c>
       <c r="AM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" t="n">
         <v>0.1606835879891149</v>
       </c>
-      <c r="AN21" t="n">
-        <v>0</v>
-      </c>
       <c r="AO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP21" t="n">
         <v>0.1145080189808446</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>0</v>
       </c>
       <c r="AQ21" t="n">
         <v>0</v>
@@ -3914,6 +3976,9 @@
         <v>7740669.240197995</v>
       </c>
       <c r="AU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV21" t="n">
         <v>7738144.593553413</v>
       </c>
     </row>
@@ -4050,19 +4115,19 @@
         <v>35021.81691234186</v>
       </c>
       <c r="AL22" t="n">
-        <v>0</v>
+        <v>16105000</v>
       </c>
       <c r="AM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN22" t="n">
         <v>0.839316412010885</v>
       </c>
-      <c r="AN22" t="n">
-        <v>0</v>
-      </c>
       <c r="AO22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP22" t="n">
         <v>0.8854919810191554</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>0</v>
       </c>
       <c r="AQ22" t="n">
         <v>0</v>
@@ -4077,6 +4142,9 @@
         <v>9303065.67435256</v>
       </c>
       <c r="AU22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV22" t="n">
         <v>9300472.305827999</v>
       </c>
     </row>
@@ -4213,19 +4281,19 @@
         <v>26404.94453840097</v>
       </c>
       <c r="AL23" t="n">
-        <v>0</v>
+        <v>7685000</v>
       </c>
       <c r="AM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN23" t="n">
         <v>0.6243452305402459</v>
       </c>
-      <c r="AN23" t="n">
-        <v>0</v>
-      </c>
       <c r="AO23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP23" t="n">
         <v>0.6119895828014166</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>0</v>
       </c>
       <c r="AQ23" t="n">
         <v>0</v>
@@ -4240,6 +4308,9 @@
         <v>5389013.482968453</v>
       </c>
       <c r="AU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV23" t="n">
         <v>5387262.245781</v>
       </c>
     </row>
@@ -4376,19 +4447,19 @@
         <v>26404.94453840097</v>
       </c>
       <c r="AL24" t="n">
-        <v>0</v>
+        <v>7685000</v>
       </c>
       <c r="AM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN24" t="n">
         <v>0.3756547694597541</v>
       </c>
-      <c r="AN24" t="n">
-        <v>0</v>
-      </c>
       <c r="AO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP24" t="n">
         <v>0.3880104171985834</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>0</v>
       </c>
       <c r="AQ24" t="n">
         <v>0</v>
@@ -4403,6 +4474,9 @@
         <v>2753948.99746341</v>
       </c>
       <c r="AU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV24" t="n">
         <v>2753445.366891</v>
       </c>
     </row>
@@ -4539,19 +4613,19 @@
         <v>9194.400169742294</v>
       </c>
       <c r="AL25" t="n">
-        <v>0</v>
+        <v>9082000</v>
       </c>
       <c r="AM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN25" t="n">
         <v>1</v>
       </c>
-      <c r="AN25" t="n">
-        <v>0</v>
-      </c>
       <c r="AO25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP25" t="n">
         <v>1</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>0</v>
       </c>
       <c r="AQ25" t="n">
         <v>0</v>
@@ -4566,6 +4640,9 @@
         <v>6949316.457117821</v>
       </c>
       <c r="AU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV25" t="n">
         <v>6947702.4420048</v>
       </c>
     </row>
@@ -4702,16 +4779,16 @@
         <v>9194.400169742294</v>
       </c>
       <c r="AL26" t="n">
+        <v>9082000</v>
+      </c>
+      <c r="AM26" t="n">
         <v>1</v>
       </c>
-      <c r="AM26" t="n">
-        <v>0</v>
-      </c>
       <c r="AN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO26" t="n">
         <v>1</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>0</v>
       </c>
       <c r="AP26" t="n">
         <v>0</v>
@@ -4729,6 +4806,9 @@
         <v>2851534.085093318</v>
       </c>
       <c r="AU26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV26" t="n">
         <v>2850379.613419552</v>
       </c>
     </row>
@@ -4865,19 +4945,19 @@
         <v>66001.96918984456</v>
       </c>
       <c r="AL27" t="n">
-        <v>0</v>
+        <v>17261000</v>
       </c>
       <c r="AM27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN27" t="n">
         <v>0.4438053645826877</v>
       </c>
-      <c r="AN27" t="n">
-        <v>0</v>
-      </c>
       <c r="AO27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP27" t="n">
         <v>0.4342418724755309</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>0</v>
       </c>
       <c r="AQ27" t="n">
         <v>0</v>
@@ -4892,6 +4972,9 @@
         <v>9700846.837888569</v>
       </c>
       <c r="AU27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV27" t="n">
         <v>9698152.060607325</v>
       </c>
     </row>
@@ -5028,19 +5111,19 @@
         <v>66001.96918984456</v>
       </c>
       <c r="AL28" t="n">
-        <v>0</v>
+        <v>17261000</v>
       </c>
       <c r="AM28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN28" t="n">
         <v>0.1682496948497675</v>
       </c>
-      <c r="AN28" t="n">
-        <v>0</v>
-      </c>
       <c r="AO28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP28" t="n">
         <v>0.172232549320605</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>0</v>
       </c>
       <c r="AQ28" t="n">
         <v>0</v>
@@ -5055,6 +5138,9 @@
         <v>2639008.583991326</v>
       </c>
       <c r="AU28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV28" t="n">
         <v>2638515.577394587</v>
       </c>
     </row>
@@ -5125,7 +5211,7 @@
         </is>
       </c>
       <c r="R29" t="n">
-        <v>5639019.7222</v>
+        <v>5639019.7223</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -5191,19 +5277,19 @@
         <v>66001.96918984456</v>
       </c>
       <c r="AL29" t="n">
-        <v>0</v>
+        <v>17261000</v>
       </c>
       <c r="AM29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN29" t="n">
         <v>0.3879449405675447</v>
       </c>
-      <c r="AN29" t="n">
-        <v>0</v>
-      </c>
       <c r="AO29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP29" t="n">
         <v>0.3935255782038641</v>
-      </c>
-      <c r="AP29" t="n">
-        <v>0</v>
       </c>
       <c r="AQ29" t="n">
         <v>0</v>
@@ -5218,6 +5304,9 @@
         <v>5956410.8216019</v>
       </c>
       <c r="AU29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV29" t="n">
         <v>5955023.747695</v>
       </c>
     </row>
@@ -5286,7 +5375,7 @@
         </is>
       </c>
       <c r="R30" t="n">
-        <v>3098845.475</v>
+        <v>3099796.9916</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -5352,16 +5441,16 @@
         <v>14338.28609736823</v>
       </c>
       <c r="AL30" t="n">
+        <v>17488000</v>
+      </c>
+      <c r="AM30" t="n">
         <v>0.2517961471065324</v>
       </c>
-      <c r="AM30" t="n">
-        <v>0</v>
-      </c>
       <c r="AN30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO30" t="n">
         <v>0.2421911459709464</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>0</v>
       </c>
       <c r="AP30" t="n">
         <v>0</v>
@@ -5379,6 +5468,9 @@
         <v>3254548.84476604</v>
       </c>
       <c r="AU30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV30" t="n">
         <v>3253313.171680001</v>
       </c>
     </row>
@@ -5397,7 +5489,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>177337</v>
+        <v>183984</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -5405,11 +5497,11 @@
         </is>
       </c>
       <c r="F31" s="2" t="n">
-        <v>45503</v>
+        <v>45525</v>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="n">
-        <v>2034000</v>
+        <v>3215000</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -5420,21 +5512,21 @@
         <v>5.55</v>
       </c>
       <c r="K31" t="n">
-        <v>103.4782846698804</v>
+        <v>107.155358204531</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>3618HKKK8</t>
+          <t>3618J1KA0</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>2069084</v>
+        <v>3158228</v>
       </c>
       <c r="N31" t="n">
         <v>4.99999999999999</v>
       </c>
       <c r="O31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P31" t="inlineStr">
         <is>
@@ -5447,7 +5539,7 @@
         </is>
       </c>
       <c r="R31" t="n">
-        <v>2045288.7</v>
+        <v>3222930.3333</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -5460,45 +5552,45 @@
         </is>
       </c>
       <c r="U31" t="n">
-        <v>104.026</v>
+        <v>107.214</v>
       </c>
       <c r="V31" t="n">
-        <v>0.998838</v>
+        <v>1</v>
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>0.998838</t>
+          <t>1</t>
         </is>
       </c>
       <c r="X31" t="n">
-        <v>0.038889</v>
+        <v>0.041667</v>
       </c>
       <c r="Y31" t="n">
-        <v>104.064889</v>
+        <v>107.255667</v>
       </c>
       <c r="Z31" t="n">
-        <v>2149884.250096022</v>
+        <v>3386062.56792</v>
       </c>
       <c r="AA31" t="n">
-        <v>2150687.961174041</v>
+        <v>3387378.50678076</v>
       </c>
       <c r="AB31" t="n">
-        <v>112887</v>
+        <v>178432.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>101699.9999999998</v>
+        <v>160749.9999999997</v>
       </c>
       <c r="AD31" t="n">
-        <v>4474.8</v>
+        <v>7394.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="AF31" t="n">
-        <v>-1821.561884660739</v>
+        <v>-3433.814391609747</v>
       </c>
       <c r="AG31" t="n">
-        <v>-2585.087408778723</v>
+        <v>-4683.956309332512</v>
       </c>
       <c r="AH31" t="n">
         <v>-26006.41119483812</v>
@@ -5513,16 +5605,16 @@
         <v>14338.28609736823</v>
       </c>
       <c r="AL31" t="n">
-        <v>0.0700428010237065</v>
+        <v>17488000</v>
       </c>
       <c r="AM31" t="n">
-        <v>0</v>
+        <v>0.1320372259703141</v>
       </c>
       <c r="AN31" t="n">
-        <v>0.08107598773302004</v>
+        <v>0</v>
       </c>
       <c r="AO31" t="n">
-        <v>0</v>
+        <v>0.1469027248315961</v>
       </c>
       <c r="AP31" t="n">
         <v>0</v>
@@ -5537,10 +5629,13 @@
         <v>0</v>
       </c>
       <c r="AT31" t="n">
-        <v>2150687.961174041</v>
+        <v>3387378.50678076</v>
       </c>
       <c r="AU31" t="n">
-        <v>2149884.250096022</v>
+        <v>0</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>3386062.56792</v>
       </c>
     </row>
     <row r="32">
@@ -5558,7 +5653,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>183984</v>
+        <v>183985</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -5570,7 +5665,7 @@
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="n">
-        <v>3215000</v>
+        <v>3106000</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -5581,15 +5676,15 @@
         <v>5.55</v>
       </c>
       <c r="K32" t="n">
-        <v>107.155358204531</v>
+        <v>106.291044115799</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>3618J1KA0</t>
+          <t>3618J1H89</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>3158228</v>
+        <v>3078397</v>
       </c>
       <c r="N32" t="n">
         <v>4.99999999999999</v>
@@ -5608,7 +5703,7 @@
         </is>
       </c>
       <c r="R32" t="n">
-        <v>3221939.0416</v>
+        <v>3113661.4667</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -5621,45 +5716,45 @@
         </is>
       </c>
       <c r="U32" t="n">
-        <v>107.214</v>
+        <v>106.376</v>
       </c>
       <c r="V32" t="n">
-        <v>1</v>
+        <v>0.999209</v>
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.999209</t>
         </is>
       </c>
       <c r="X32" t="n">
-        <v>0.041667</v>
+        <v>0.038889</v>
       </c>
       <c r="Y32" t="n">
-        <v>107.255667</v>
+        <v>106.414889</v>
       </c>
       <c r="Z32" t="n">
-        <v>3386062.56792</v>
+        <v>3272085.324326159</v>
       </c>
       <c r="AA32" t="n">
-        <v>3387378.50678076</v>
+        <v>3273281.535183661</v>
       </c>
       <c r="AB32" t="n">
-        <v>178432.5</v>
+        <v>172383</v>
       </c>
       <c r="AC32" t="n">
-        <v>160749.9999999997</v>
+        <v>155299.9999999997</v>
       </c>
       <c r="AD32" t="n">
-        <v>7394.5</v>
+        <v>7143.8</v>
       </c>
       <c r="AE32" t="n">
         <v>13</v>
       </c>
       <c r="AF32" t="n">
-        <v>-3433.814391609747</v>
+        <v>-2607.483242187649</v>
       </c>
       <c r="AG32" t="n">
-        <v>-4683.956309332512</v>
+        <v>-3743.883556814864</v>
       </c>
       <c r="AH32" t="n">
         <v>-26006.41119483812</v>
@@ -5674,16 +5769,16 @@
         <v>14338.28609736823</v>
       </c>
       <c r="AL32" t="n">
-        <v>0.1320372259703141</v>
+        <v>17488000</v>
       </c>
       <c r="AM32" t="n">
-        <v>0</v>
+        <v>0.1002630936907279</v>
       </c>
       <c r="AN32" t="n">
-        <v>0.1469027248315961</v>
+        <v>0</v>
       </c>
       <c r="AO32" t="n">
-        <v>0</v>
+        <v>0.117419262611928</v>
       </c>
       <c r="AP32" t="n">
         <v>0</v>
@@ -5698,10 +5793,13 @@
         <v>0</v>
       </c>
       <c r="AT32" t="n">
-        <v>3387378.50678076</v>
+        <v>3273281.535183661</v>
       </c>
       <c r="AU32" t="n">
-        <v>3386062.56792</v>
+        <v>0</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>3272085.324326159</v>
       </c>
     </row>
     <row r="33">
@@ -5719,7 +5817,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>183985</v>
+        <v>173009</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -5727,11 +5825,11 @@
         </is>
       </c>
       <c r="F33" s="2" t="n">
-        <v>45525</v>
+        <v>45489</v>
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="n">
-        <v>3106000</v>
+        <v>2327000</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -5742,21 +5840,21 @@
         <v>5.55</v>
       </c>
       <c r="K33" t="n">
-        <v>106.291044115799</v>
+        <v>102.408140404157</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>3618J1H89</t>
+          <t>3618HVHW2</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>3078397</v>
+        <v>2391874</v>
       </c>
       <c r="N33" t="n">
         <v>4.99999999999999</v>
       </c>
       <c r="O33" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P33" t="inlineStr">
         <is>
@@ -5769,7 +5867,7 @@
         </is>
       </c>
       <c r="R33" t="n">
-        <v>3112703.7834</v>
+        <v>2345654.7833</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
@@ -5782,45 +5880,45 @@
         </is>
       </c>
       <c r="U33" t="n">
-        <v>106.376</v>
+        <v>102.727</v>
       </c>
       <c r="V33" t="n">
-        <v>0.999209</v>
+        <v>0.999342</v>
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>0.999209</t>
+          <t>0.999342</t>
         </is>
       </c>
       <c r="X33" t="n">
-        <v>0.038889</v>
+        <v>0.041667</v>
       </c>
       <c r="Y33" t="n">
-        <v>106.414889</v>
+        <v>102.768667</v>
       </c>
       <c r="Z33" t="n">
-        <v>3272085.324326159</v>
+        <v>2455483.631914181</v>
       </c>
       <c r="AA33" t="n">
-        <v>3273281.535183661</v>
+        <v>2456479.598276393</v>
       </c>
       <c r="AB33" t="n">
-        <v>172383</v>
+        <v>129148.5</v>
       </c>
       <c r="AC33" t="n">
-        <v>155299.9999999997</v>
+        <v>116349.9999999998</v>
       </c>
       <c r="AD33" t="n">
-        <v>7143.8</v>
+        <v>4886.7</v>
       </c>
       <c r="AE33" t="n">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="AF33" t="n">
-        <v>-2607.483242187649</v>
+        <v>-10922.92747075902</v>
       </c>
       <c r="AG33" t="n">
-        <v>-3743.883556814864</v>
+        <v>-11869.09551486094</v>
       </c>
       <c r="AH33" t="n">
         <v>-26006.41119483812</v>
@@ -5835,16 +5933,16 @@
         <v>14338.28609736823</v>
       </c>
       <c r="AL33" t="n">
-        <v>0.1002630936907279</v>
+        <v>17488000</v>
       </c>
       <c r="AM33" t="n">
-        <v>0</v>
+        <v>0.4200090273481125</v>
       </c>
       <c r="AN33" t="n">
-        <v>0.117419262611928</v>
+        <v>0</v>
       </c>
       <c r="AO33" t="n">
-        <v>0</v>
+        <v>0.3722499436951451</v>
       </c>
       <c r="AP33" t="n">
         <v>0</v>
@@ -5859,10 +5957,13 @@
         <v>0</v>
       </c>
       <c r="AT33" t="n">
-        <v>3273281.535183661</v>
+        <v>2456479.598276393</v>
       </c>
       <c r="AU33" t="n">
-        <v>3272085.324326159</v>
+        <v>0</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>2455483.631914181</v>
       </c>
     </row>
     <row r="34">
@@ -5880,7 +5981,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>173009</v>
+        <v>173011</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -5892,7 +5993,7 @@
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="n">
-        <v>2327000</v>
+        <v>1856000</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -5903,15 +6004,15 @@
         <v>5.55</v>
       </c>
       <c r="K34" t="n">
-        <v>102.408140404157</v>
+        <v>100.4251131392246</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>3618HVHW2</t>
+          <t>3618HXX42</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>2391874</v>
+        <v>1945414</v>
       </c>
       <c r="N34" t="n">
         <v>4.99999999999999</v>
@@ -5930,7 +6031,7 @@
         </is>
       </c>
       <c r="R34" t="n">
-        <v>2344937.2916</v>
+        <v>1870878.9333</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -5943,45 +6044,45 @@
         </is>
       </c>
       <c r="U34" t="n">
-        <v>102.727</v>
+        <v>102.051</v>
       </c>
       <c r="V34" t="n">
-        <v>0.999342</v>
+        <v>0.999104</v>
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>0.999342</t>
+          <t>0.999104</t>
         </is>
       </c>
       <c r="X34" t="n">
-        <v>0.041667</v>
+        <v>0.033333</v>
       </c>
       <c r="Y34" t="n">
-        <v>102.768667</v>
+        <v>102.084333</v>
       </c>
       <c r="Z34" t="n">
-        <v>2455483.631914181</v>
+        <v>1983535.599400738</v>
       </c>
       <c r="AA34" t="n">
-        <v>2456479.598276393</v>
+        <v>1984183.483224854</v>
       </c>
       <c r="AB34" t="n">
-        <v>129148.5</v>
+        <v>103008</v>
       </c>
       <c r="AC34" t="n">
-        <v>116349.9999999998</v>
+        <v>92799.99999999981</v>
       </c>
       <c r="AD34" t="n">
-        <v>4886.7</v>
+        <v>3897.6</v>
       </c>
       <c r="AE34" t="n">
         <v>49</v>
       </c>
       <c r="AF34" t="n">
-        <v>-10922.92747075902</v>
+        <v>14953.77573027811</v>
       </c>
       <c r="AG34" t="n">
-        <v>-11869.09551486094</v>
+        <v>14338.28609736823</v>
       </c>
       <c r="AH34" t="n">
         <v>-26006.41119483812</v>
@@ -5996,19 +6097,19 @@
         <v>14338.28609736823</v>
       </c>
       <c r="AL34" t="n">
-        <v>0.4200090273481125</v>
+        <v>17488000</v>
       </c>
       <c r="AM34" t="n">
         <v>0</v>
       </c>
       <c r="AN34" t="n">
-        <v>0.3722499436951451</v>
+        <v>1</v>
       </c>
       <c r="AO34" t="n">
         <v>0</v>
       </c>
       <c r="AP34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ34" t="n">
         <v>0</v>
@@ -6020,10 +6121,13 @@
         <v>0</v>
       </c>
       <c r="AT34" t="n">
-        <v>2456479.598276393</v>
+        <v>1984183.483224854</v>
       </c>
       <c r="AU34" t="n">
-        <v>2455483.631914181</v>
+        <v>0</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>1983535.599400738</v>
       </c>
     </row>
     <row r="35">
@@ -6041,7 +6145,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>173011</v>
+        <v>173012</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -6053,7 +6157,7 @@
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="n">
-        <v>1856000</v>
+        <v>1864000</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -6064,15 +6168,15 @@
         <v>5.55</v>
       </c>
       <c r="K35" t="n">
-        <v>100.4251131392246</v>
+        <v>102.0640203138063</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>3618HXX42</t>
+          <t>3618FP4J0</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>1945414</v>
+        <v>1922426</v>
       </c>
       <c r="N35" t="n">
         <v>4.99999999999999</v>
@@ -6091,7 +6195,7 @@
         </is>
       </c>
       <c r="R35" t="n">
-        <v>1870306.6666</v>
+        <v>1878943.0667</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -6104,45 +6208,45 @@
         </is>
       </c>
       <c r="U35" t="n">
-        <v>102.051</v>
+        <v>102.858</v>
       </c>
       <c r="V35" t="n">
-        <v>0.999104</v>
+        <v>0.999095</v>
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>0.999104</t>
+          <t>0.999095</t>
         </is>
       </c>
       <c r="X35" t="n">
         <v>0.033333</v>
       </c>
       <c r="Y35" t="n">
-        <v>102.084333</v>
+        <v>102.891333</v>
       </c>
       <c r="Z35" t="n">
-        <v>1983535.599400738</v>
+        <v>1975579.416193753</v>
       </c>
       <c r="AA35" t="n">
-        <v>1984183.483224854</v>
+        <v>1976219.638526289</v>
       </c>
       <c r="AB35" t="n">
-        <v>103008</v>
+        <v>103452</v>
       </c>
       <c r="AC35" t="n">
-        <v>92799.99999999981</v>
+        <v>93199.99999999981</v>
       </c>
       <c r="AD35" t="n">
-        <v>3897.6</v>
+        <v>3914.4</v>
       </c>
       <c r="AE35" t="n">
         <v>49</v>
       </c>
       <c r="AF35" t="n">
-        <v>14953.77573027811</v>
+        <v>-672.3100666925311</v>
       </c>
       <c r="AG35" t="n">
-        <v>14338.28609736823</v>
+        <v>-1280.521282601636</v>
       </c>
       <c r="AH35" t="n">
         <v>-26006.41119483812</v>
@@ -6157,16 +6261,16 @@
         <v>14338.28609736823</v>
       </c>
       <c r="AL35" t="n">
-        <v>0</v>
+        <v>17488000</v>
       </c>
       <c r="AM35" t="n">
-        <v>1</v>
+        <v>0.02585170486060662</v>
       </c>
       <c r="AN35" t="n">
         <v>0</v>
       </c>
       <c r="AO35" t="n">
-        <v>1</v>
+        <v>0.04016093515736435</v>
       </c>
       <c r="AP35" t="n">
         <v>0</v>
@@ -6181,10 +6285,13 @@
         <v>0</v>
       </c>
       <c r="AT35" t="n">
-        <v>1984183.483224854</v>
+        <v>1976219.638526289</v>
       </c>
       <c r="AU35" t="n">
-        <v>1983535.599400738</v>
+        <v>0</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>1975579.416193753</v>
       </c>
     </row>
     <row r="36">
@@ -6202,7 +6309,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>173012</v>
+        <v>177337</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -6210,11 +6317,11 @@
         </is>
       </c>
       <c r="F36" s="2" t="n">
-        <v>45489</v>
+        <v>45503</v>
       </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="n">
-        <v>1864000</v>
+        <v>2034000</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -6225,21 +6332,21 @@
         <v>5.55</v>
       </c>
       <c r="K36" t="n">
-        <v>102.0640203138063</v>
+        <v>103.4782846698804</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>3618FP4J0</t>
+          <t>3618HKKK8</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>1922426</v>
+        <v>2069084</v>
       </c>
       <c r="N36" t="n">
         <v>4.99999999999999</v>
       </c>
       <c r="O36" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P36" t="inlineStr">
         <is>
@@ -6252,7 +6359,7 @@
         </is>
       </c>
       <c r="R36" t="n">
-        <v>1878368.3334</v>
+        <v>2045915.85</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -6265,45 +6372,45 @@
         </is>
       </c>
       <c r="U36" t="n">
-        <v>102.858</v>
+        <v>104.026</v>
       </c>
       <c r="V36" t="n">
-        <v>0.999095</v>
+        <v>0.998838</v>
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>0.999095</t>
+          <t>0.998838</t>
         </is>
       </c>
       <c r="X36" t="n">
-        <v>0.033333</v>
+        <v>0.038889</v>
       </c>
       <c r="Y36" t="n">
-        <v>102.891333</v>
+        <v>104.064889</v>
       </c>
       <c r="Z36" t="n">
-        <v>1975579.416193753</v>
+        <v>2149884.250096022</v>
       </c>
       <c r="AA36" t="n">
-        <v>1976219.638526289</v>
+        <v>2150687.961174041</v>
       </c>
       <c r="AB36" t="n">
-        <v>103452</v>
+        <v>112887</v>
       </c>
       <c r="AC36" t="n">
-        <v>93199.99999999981</v>
+        <v>101699.9999999998</v>
       </c>
       <c r="AD36" t="n">
-        <v>3914.4</v>
+        <v>4474.8</v>
       </c>
       <c r="AE36" t="n">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="AF36" t="n">
-        <v>-672.3100666925311</v>
+        <v>-1821.561884660739</v>
       </c>
       <c r="AG36" t="n">
-        <v>-1280.521282601636</v>
+        <v>-2585.087408778723</v>
       </c>
       <c r="AH36" t="n">
         <v>-26006.41119483812</v>
@@ -6318,16 +6425,16 @@
         <v>14338.28609736823</v>
       </c>
       <c r="AL36" t="n">
-        <v>0.02585170486060662</v>
+        <v>17488000</v>
       </c>
       <c r="AM36" t="n">
-        <v>0</v>
+        <v>0.0700428010237065</v>
       </c>
       <c r="AN36" t="n">
-        <v>0.04016093515736435</v>
+        <v>0</v>
       </c>
       <c r="AO36" t="n">
-        <v>0</v>
+        <v>0.08107598773302004</v>
       </c>
       <c r="AP36" t="n">
         <v>0</v>
@@ -6342,10 +6449,13 @@
         <v>0</v>
       </c>
       <c r="AT36" t="n">
-        <v>1976219.638526289</v>
+        <v>2150687.961174041</v>
       </c>
       <c r="AU36" t="n">
-        <v>1975579.416193753</v>
+        <v>0</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>2149884.250096022</v>
       </c>
     </row>
     <row r="37">
@@ -6413,7 +6523,7 @@
         </is>
       </c>
       <c r="R37" t="n">
-        <v>12177581.724</v>
+        <v>12181203.8964</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
@@ -6479,16 +6589,16 @@
         <v>0</v>
       </c>
       <c r="AL37" t="n">
-        <v>0</v>
+        <v>12141360</v>
       </c>
       <c r="AM37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN37" t="n">
         <v>1</v>
       </c>
       <c r="AO37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP37" t="n">
         <v>0</v>
@@ -6506,6 +6616,9 @@
         <v>12702339.972</v>
       </c>
       <c r="AU37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV37" t="n">
         <v>12642840</v>
       </c>
     </row>
